--- a/src/main/resources/telegramFeeTestCases.xlsx
+++ b/src/main/resources/telegramFeeTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE875F-D142-4CAD-B085-413F8CBB0407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A479FE-772C-4761-9AEF-1F74DFB4CFC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,73 +42,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>28.7125</t>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>145.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>25.0</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>异常</t>
-  </si>
-  <si>
-    <t>28.7125</t>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28.75</t>
-  </si>
-  <si>
-    <t>36.82</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>47.05</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>57.175</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>97.75</t>
-  </si>
-  <si>
-    <t>145.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>56.65</t>
-  </si>
-  <si>
-    <t>37.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>145.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6520.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57.175</t>
@@ -123,7 +81,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,14 +403,14 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.125" collapsed="true"/>
+    <col min="1" max="1" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -488,13 +445,7 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -511,12 +462,6 @@
       <c r="E3" s="1">
         <v>28.75</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -532,12 +477,6 @@
       <c r="E4" s="1">
         <v>36.82</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -551,13 +490,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -574,12 +507,6 @@
       <c r="E6" s="1">
         <v>47.05</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -595,12 +522,6 @@
       <c r="E7" s="1">
         <v>47.5</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -614,13 +535,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -635,13 +550,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,12 +567,6 @@
       <c r="E10" s="1">
         <v>97.75</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -677,13 +580,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -698,12 +595,6 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -719,13 +610,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -742,12 +627,6 @@
       <c r="E14" s="1">
         <v>6520.12</v>
       </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -761,12 +640,6 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -782,16 +655,10 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -803,16 +670,10 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -824,12 +685,6 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
         <v>6</v>
       </c>
     </row>

--- a/src/main/resources/telegramFeeTestCases.xlsx
+++ b/src/main/resources/telegramFeeTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A479FE-772C-4761-9AEF-1F74DFB4CFC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC62EC-3392-4BF8-A8F3-B11AFEA72DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/telegramFeeTestCases.xlsx
+++ b/src/main/resources/telegramFeeTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC62EC-3392-4BF8-A8F3-B11AFEA72DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B8701D-1245-4E3C-9DFD-2682C8515984}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/telegramFeeTestCases.xlsx
+++ b/src/main/resources/telegramFeeTestCases.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,12 +75,55 @@
   <si>
     <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>28.75</t>
+  </si>
+  <si>
+    <t>36.82</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>47.05</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>57.175</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>97.75</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>6520.12</t>
+  </si>
+  <si>
+    <t>56.65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,9 +451,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -447,6 +490,12 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -462,6 +511,12 @@
       <c r="E3" s="1">
         <v>28.75</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -477,6 +532,12 @@
       <c r="E4" s="1">
         <v>36.82</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -492,6 +553,12 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -507,6 +574,12 @@
       <c r="E6" s="1">
         <v>47.05</v>
       </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -522,6 +595,12 @@
       <c r="E7" s="1">
         <v>47.5</v>
       </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -537,6 +616,12 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -552,6 +637,12 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -567,6 +658,12 @@
       <c r="E10" s="1">
         <v>97.75</v>
       </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -582,6 +679,12 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -597,6 +700,12 @@
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -612,6 +721,12 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -627,6 +742,12 @@
       <c r="E14" s="1">
         <v>6520.12</v>
       </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -642,6 +763,12 @@
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -657,6 +784,12 @@
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -672,6 +805,12 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -686,6 +825,12 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
